--- a/document/04_案件/UPG案障害管理表.xlsx
+++ b/document/04_案件/UPG案障害管理表.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Desktop\研修更新内容\20201210\更新後\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEADB7A-754F-4AFE-9917-0E52DC0E8953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{60DE907D-6245-455E-9FA8-583652D40D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-4460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="2" r:id="rId1"/>
     <sheet name="障害管理表" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>障害管理表</t>
     <rPh sb="0" eb="2">
@@ -390,6 +382,45 @@
     <t>西尾</t>
     <rPh sb="0" eb="2">
       <t>ニシオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宮田</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「3_エビデンス成型」⇒「フォルダ内の全てを対象にしますか」⇒「１：はい」⇒「１：tsv」または「２：csv」のどちらを選択しても処理に失敗する</t>
+    <rPh sb="8" eb="10">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -509,30 +540,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,8 +549,32 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,14 +892,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S12:AM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="19:39" x14ac:dyDescent="0.4">
+    <row r="12" spans="19:39" x14ac:dyDescent="0.55000000000000004">
       <c r="S12" s="9" t="s">
         <v>0</v>
       </c>
@@ -893,7 +924,7 @@
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
     </row>
-    <row r="13" spans="19:39" x14ac:dyDescent="0.4">
+    <row r="13" spans="19:39" x14ac:dyDescent="0.55000000000000004">
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -916,7 +947,7 @@
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
     </row>
-    <row r="14" spans="19:39" x14ac:dyDescent="0.4">
+    <row r="14" spans="19:39" x14ac:dyDescent="0.55000000000000004">
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -939,7 +970,7 @@
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
     </row>
-    <row r="15" spans="19:39" x14ac:dyDescent="0.4">
+    <row r="15" spans="19:39" x14ac:dyDescent="0.55000000000000004">
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -976,9 +1007,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BW27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12:AQ12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="15" width="4.25" style="2"/>
@@ -989,223 +1022,223 @@
     <col min="44" max="67" width="4.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="10" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="18" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18" t="s">
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18" t="s">
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18" t="s">
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18" t="s">
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18" t="s">
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18" t="s">
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18" t="s">
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18" t="s">
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="18"/>
-      <c r="BW2" s="18"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="12">
         <v>44116</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="11" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="19" t="s">
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="21" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="19" t="s">
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="20">
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="12">
         <v>44118</v>
       </c>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19" t="s">
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="20">
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="12">
         <v>44118</v>
       </c>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19" t="s">
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="20">
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="12">
         <v>44123</v>
       </c>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="11"/>
+      <c r="BV3" s="11"/>
+      <c r="BW3" s="11"/>
     </row>
-    <row r="4" spans="1:75" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:75" ht="67" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>44167</v>
       </c>
       <c r="C4" s="13"/>
@@ -1225,12 +1258,12 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
       <c r="V4" s="13" t="s">
         <v>22</v>
       </c>
@@ -1238,40 +1271,40 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
-      <c r="AA4" s="14" t="s">
+      <c r="AA4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
       <c r="AR4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS4" s="13"/>
       <c r="AT4" s="13"/>
       <c r="AU4" s="13"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
       <c r="AZ4" s="13"/>
       <c r="BA4" s="13"/>
       <c r="BB4" s="13"/>
       <c r="BC4" s="13"/>
-      <c r="BD4" s="15"/>
+      <c r="BD4" s="14"/>
       <c r="BE4" s="13"/>
       <c r="BF4" s="13"/>
       <c r="BG4" s="13"/>
@@ -1292,12 +1325,12 @@
       <c r="BV4" s="13"/>
       <c r="BW4" s="13"/>
     </row>
-    <row r="5" spans="1:75" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:75" ht="67" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <f t="shared" ref="A5:A9" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>44167</v>
       </c>
       <c r="C5" s="13"/>
@@ -1317,12 +1350,12 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
       <c r="V5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1330,40 +1363,40 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
-      <c r="AA5" s="14" t="s">
+      <c r="AA5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
       <c r="AR5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS5" s="13"/>
       <c r="AT5" s="13"/>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
       <c r="AZ5" s="13"/>
       <c r="BA5" s="13"/>
       <c r="BB5" s="13"/>
       <c r="BC5" s="13"/>
-      <c r="BD5" s="15"/>
+      <c r="BD5" s="14"/>
       <c r="BE5" s="13"/>
       <c r="BF5" s="13"/>
       <c r="BG5" s="13"/>
@@ -1384,12 +1417,12 @@
       <c r="BV5" s="13"/>
       <c r="BW5" s="13"/>
     </row>
-    <row r="6" spans="1:75" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:75" ht="67" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>44167</v>
       </c>
       <c r="C6" s="13"/>
@@ -1409,12 +1442,12 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
       <c r="V6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1422,40 +1455,40 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
-      <c r="AA6" s="14" t="s">
+      <c r="AA6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
       <c r="AR6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS6" s="13"/>
       <c r="AT6" s="13"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
       <c r="AZ6" s="13"/>
       <c r="BA6" s="13"/>
       <c r="BB6" s="13"/>
       <c r="BC6" s="13"/>
-      <c r="BD6" s="15"/>
+      <c r="BD6" s="14"/>
       <c r="BE6" s="13"/>
       <c r="BF6" s="13"/>
       <c r="BG6" s="13"/>
@@ -1476,12 +1509,12 @@
       <c r="BV6" s="13"/>
       <c r="BW6" s="13"/>
     </row>
-    <row r="7" spans="1:75" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:75" ht="67" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>44167</v>
       </c>
       <c r="C7" s="13"/>
@@ -1501,12 +1534,12 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
       <c r="V7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1514,40 +1547,40 @@
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
-      <c r="AA7" s="14" t="s">
+      <c r="AA7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
       <c r="AR7" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS7" s="13"/>
       <c r="AT7" s="13"/>
       <c r="AU7" s="13"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="13"/>
       <c r="BB7" s="13"/>
       <c r="BC7" s="13"/>
-      <c r="BD7" s="15"/>
+      <c r="BD7" s="14"/>
       <c r="BE7" s="13"/>
       <c r="BF7" s="13"/>
       <c r="BG7" s="13"/>
@@ -1568,66 +1601,78 @@
       <c r="BV7" s="13"/>
       <c r="BW7" s="13"/>
     </row>
-    <row r="8" spans="1:75" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:75" ht="37.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="14">
+        <v>44175</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="13"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="13"/>
+      <c r="AA8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
       <c r="AU8" s="13"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
       <c r="AZ8" s="13"/>
       <c r="BA8" s="13"/>
       <c r="BB8" s="13"/>
       <c r="BC8" s="13"/>
-      <c r="BD8" s="15"/>
+      <c r="BD8" s="14"/>
       <c r="BE8" s="13"/>
       <c r="BF8" s="13"/>
       <c r="BG8" s="13"/>
@@ -1648,12 +1693,12 @@
       <c r="BV8" s="13"/>
       <c r="BW8" s="13"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -1667,39 +1712,39 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
       <c r="AU9" s="13"/>
-      <c r="AV9" s="15"/>
+      <c r="AV9" s="14"/>
       <c r="AW9" s="13"/>
       <c r="AX9" s="13"/>
       <c r="AY9" s="13"/>
@@ -1707,7 +1752,7 @@
       <c r="BA9" s="13"/>
       <c r="BB9" s="13"/>
       <c r="BC9" s="13"/>
-      <c r="BD9" s="15"/>
+      <c r="BD9" s="14"/>
       <c r="BE9" s="13"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="13"/>
@@ -1715,7 +1760,7 @@
       <c r="BI9" s="13"/>
       <c r="BJ9" s="13"/>
       <c r="BK9" s="13"/>
-      <c r="BL9" s="15"/>
+      <c r="BL9" s="14"/>
       <c r="BM9" s="13"/>
       <c r="BN9" s="13"/>
       <c r="BO9" s="13"/>
@@ -1728,12 +1773,12 @@
       <c r="BV9" s="13"/>
       <c r="BW9" s="13"/>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8">
         <f>ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1747,12 +1792,12 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -1779,7 +1824,7 @@
       <c r="AS10" s="13"/>
       <c r="AT10" s="13"/>
       <c r="AU10" s="13"/>
-      <c r="AV10" s="15"/>
+      <c r="AV10" s="14"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="13"/>
@@ -1808,12 +1853,12 @@
       <c r="BV10" s="13"/>
       <c r="BW10" s="13"/>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8">
         <f t="shared" ref="A11:A12" si="1">ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1827,12 +1872,12 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
@@ -1859,7 +1904,7 @@
       <c r="AS11" s="13"/>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
-      <c r="AV11" s="15"/>
+      <c r="AV11" s="14"/>
       <c r="AW11" s="13"/>
       <c r="AX11" s="13"/>
       <c r="AY11" s="13"/>
@@ -1888,12 +1933,12 @@
       <c r="BV11" s="13"/>
       <c r="BW11" s="13"/>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -1907,12 +1952,12 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
@@ -1939,7 +1984,7 @@
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
-      <c r="AV12" s="15"/>
+      <c r="AV12" s="14"/>
       <c r="AW12" s="13"/>
       <c r="AX12" s="13"/>
       <c r="AY12" s="13"/>
@@ -1968,11 +2013,11 @@
       <c r="BV12" s="13"/>
       <c r="BW12" s="13"/>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1986,39 +2031,39 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
       <c r="AR13" s="13"/>
       <c r="AS13" s="13"/>
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
-      <c r="AV13" s="15"/>
+      <c r="AV13" s="14"/>
       <c r="AW13" s="13"/>
       <c r="AX13" s="13"/>
       <c r="AY13" s="13"/>
@@ -2026,7 +2071,7 @@
       <c r="BA13" s="13"/>
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>
-      <c r="BD13" s="15"/>
+      <c r="BD13" s="14"/>
       <c r="BE13" s="13"/>
       <c r="BF13" s="13"/>
       <c r="BG13" s="13"/>
@@ -2047,11 +2092,11 @@
       <c r="BV13" s="13"/>
       <c r="BW13" s="13"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -2065,39 +2110,39 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
       <c r="AR14" s="13"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
-      <c r="AV14" s="15"/>
+      <c r="AV14" s="14"/>
       <c r="AW14" s="13"/>
       <c r="AX14" s="13"/>
       <c r="AY14" s="13"/>
@@ -2105,7 +2150,7 @@
       <c r="BA14" s="13"/>
       <c r="BB14" s="13"/>
       <c r="BC14" s="13"/>
-      <c r="BD14" s="15"/>
+      <c r="BD14" s="14"/>
       <c r="BE14" s="13"/>
       <c r="BF14" s="13"/>
       <c r="BG14" s="13"/>
@@ -2126,11 +2171,11 @@
       <c r="BV14" s="13"/>
       <c r="BW14" s="13"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2144,39 +2189,39 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="16"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
       <c r="AR15" s="13"/>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
       <c r="AU15" s="13"/>
-      <c r="AV15" s="15"/>
+      <c r="AV15" s="14"/>
       <c r="AW15" s="13"/>
       <c r="AX15" s="13"/>
       <c r="AY15" s="13"/>
@@ -2184,7 +2229,7 @@
       <c r="BA15" s="13"/>
       <c r="BB15" s="13"/>
       <c r="BC15" s="13"/>
-      <c r="BD15" s="15"/>
+      <c r="BD15" s="14"/>
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
       <c r="BG15" s="13"/>
@@ -2205,11 +2250,11 @@
       <c r="BV15" s="13"/>
       <c r="BW15" s="13"/>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2223,39 +2268,39 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
       <c r="AR16" s="13"/>
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
       <c r="AU16" s="13"/>
-      <c r="AV16" s="15"/>
+      <c r="AV16" s="14"/>
       <c r="AW16" s="13"/>
       <c r="AX16" s="13"/>
       <c r="AY16" s="13"/>
@@ -2263,7 +2308,7 @@
       <c r="BA16" s="13"/>
       <c r="BB16" s="13"/>
       <c r="BC16" s="13"/>
-      <c r="BD16" s="15"/>
+      <c r="BD16" s="14"/>
       <c r="BE16" s="13"/>
       <c r="BF16" s="13"/>
       <c r="BG16" s="13"/>
@@ -2284,11 +2329,11 @@
       <c r="BV16" s="13"/>
       <c r="BW16" s="13"/>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -2302,39 +2347,39 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
       <c r="AR17" s="13"/>
       <c r="AS17" s="13"/>
       <c r="AT17" s="13"/>
       <c r="AU17" s="13"/>
-      <c r="AV17" s="15"/>
+      <c r="AV17" s="14"/>
       <c r="AW17" s="13"/>
       <c r="AX17" s="13"/>
       <c r="AY17" s="13"/>
@@ -2342,7 +2387,7 @@
       <c r="BA17" s="13"/>
       <c r="BB17" s="13"/>
       <c r="BC17" s="13"/>
-      <c r="BD17" s="15"/>
+      <c r="BD17" s="14"/>
       <c r="BE17" s="13"/>
       <c r="BF17" s="13"/>
       <c r="BG17" s="13"/>
@@ -2363,11 +2408,11 @@
       <c r="BV17" s="13"/>
       <c r="BW17" s="13"/>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -2381,39 +2426,39 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
       <c r="AU18" s="13"/>
-      <c r="AV18" s="15"/>
+      <c r="AV18" s="14"/>
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="13"/>
@@ -2421,7 +2466,7 @@
       <c r="BA18" s="13"/>
       <c r="BB18" s="13"/>
       <c r="BC18" s="13"/>
-      <c r="BD18" s="15"/>
+      <c r="BD18" s="14"/>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
       <c r="BG18" s="13"/>
@@ -2442,7 +2487,7 @@
       <c r="BV18" s="13"/>
       <c r="BW18" s="13"/>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2458,34 +2503,34 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
       <c r="AR19" s="13"/>
       <c r="AS19" s="13"/>
       <c r="AT19" s="13"/>
@@ -2519,7 +2564,7 @@
       <c r="BV19" s="13"/>
       <c r="BW19" s="13"/>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2535,34 +2580,34 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
       <c r="AR20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
@@ -2596,7 +2641,7 @@
       <c r="BV20" s="13"/>
       <c r="BW20" s="13"/>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2612,34 +2657,34 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
       <c r="AR21" s="13"/>
       <c r="AS21" s="13"/>
       <c r="AT21" s="13"/>
@@ -2673,7 +2718,7 @@
       <c r="BV21" s="13"/>
       <c r="BW21" s="13"/>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2689,34 +2734,34 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="14"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="14"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
       <c r="AR22" s="13"/>
       <c r="AS22" s="13"/>
       <c r="AT22" s="13"/>
@@ -2750,7 +2795,7 @@
       <c r="BV22" s="13"/>
       <c r="BW22" s="13"/>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2766,34 +2811,34 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
       <c r="AR23" s="13"/>
       <c r="AS23" s="13"/>
       <c r="AT23" s="13"/>
@@ -2827,7 +2872,7 @@
       <c r="BV23" s="13"/>
       <c r="BW23" s="13"/>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2843,34 +2888,34 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="14"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
       <c r="AR24" s="13"/>
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
@@ -2904,7 +2949,7 @@
       <c r="BV24" s="13"/>
       <c r="BW24" s="13"/>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2920,34 +2965,34 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
       <c r="AR25" s="13"/>
       <c r="AS25" s="13"/>
       <c r="AT25" s="13"/>
@@ -2981,7 +3026,7 @@
       <c r="BV25" s="13"/>
       <c r="BW25" s="13"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2997,34 +3042,34 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="14"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
       <c r="AR26" s="13"/>
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
@@ -3058,7 +3103,7 @@
       <c r="BV26" s="13"/>
       <c r="BW26" s="13"/>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -3074,34 +3119,34 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
       <c r="AR27" s="13"/>
       <c r="AS27" s="13"/>
       <c r="AT27" s="13"/>
@@ -3137,51 +3182,275 @@
     </row>
   </sheetData>
   <mergeCells count="338">
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AR6:AU6"/>
-    <mergeCell ref="AV6:AY6"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BD3:BG3"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="BD6:BG6"/>
-    <mergeCell ref="BD7:BG7"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="BD9:BG9"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="BP20:BW20"/>
-    <mergeCell ref="BP21:BW21"/>
-    <mergeCell ref="BP22:BW22"/>
-    <mergeCell ref="BP23:BW23"/>
-    <mergeCell ref="BP24:BW24"/>
-    <mergeCell ref="BP25:BW25"/>
-    <mergeCell ref="BP26:BW26"/>
-    <mergeCell ref="BP27:BW27"/>
-    <mergeCell ref="BP11:BW11"/>
-    <mergeCell ref="BP12:BW12"/>
-    <mergeCell ref="BP13:BW13"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="BP15:BW15"/>
-    <mergeCell ref="BP16:BW16"/>
-    <mergeCell ref="BP17:BW17"/>
-    <mergeCell ref="BP18:BW18"/>
-    <mergeCell ref="BP19:BW19"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BP3:BW3"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BP5:BW5"/>
-    <mergeCell ref="BP6:BW6"/>
-    <mergeCell ref="BP7:BW7"/>
-    <mergeCell ref="BP8:BW8"/>
-    <mergeCell ref="BP9:BW9"/>
-    <mergeCell ref="BP10:BW10"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="BL27:BO27"/>
+    <mergeCell ref="BH26:BK26"/>
+    <mergeCell ref="BL26:BO26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="AA27:AQ27"/>
+    <mergeCell ref="AZ27:BC27"/>
+    <mergeCell ref="BH27:BK27"/>
+    <mergeCell ref="P26:U26"/>
+    <mergeCell ref="P27:U27"/>
+    <mergeCell ref="BD27:BG27"/>
+    <mergeCell ref="AR27:AU27"/>
+    <mergeCell ref="AV27:AY27"/>
+    <mergeCell ref="BH25:BK25"/>
+    <mergeCell ref="BL25:BO25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="AA26:AQ26"/>
+    <mergeCell ref="AZ26:BC26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AA25:AQ25"/>
+    <mergeCell ref="AZ25:BC25"/>
+    <mergeCell ref="P25:U25"/>
+    <mergeCell ref="BD25:BG25"/>
+    <mergeCell ref="BD26:BG26"/>
+    <mergeCell ref="AR25:AU25"/>
+    <mergeCell ref="AV25:AY25"/>
+    <mergeCell ref="AR26:AU26"/>
+    <mergeCell ref="AV26:AY26"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="AA24:AQ24"/>
+    <mergeCell ref="AZ24:BC24"/>
+    <mergeCell ref="BH24:BK24"/>
+    <mergeCell ref="BL24:BO24"/>
+    <mergeCell ref="P24:U24"/>
+    <mergeCell ref="BD24:BG24"/>
+    <mergeCell ref="AR24:AU24"/>
+    <mergeCell ref="AV24:AY24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="V23:Z23"/>
+    <mergeCell ref="AA23:AQ23"/>
+    <mergeCell ref="AZ23:BC23"/>
+    <mergeCell ref="BH23:BK23"/>
+    <mergeCell ref="BL23:BO23"/>
+    <mergeCell ref="P23:U23"/>
+    <mergeCell ref="BD23:BG23"/>
+    <mergeCell ref="AR23:AU23"/>
+    <mergeCell ref="AV23:AY23"/>
+    <mergeCell ref="BH21:BK21"/>
+    <mergeCell ref="BL21:BO21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="AA22:AQ22"/>
+    <mergeCell ref="AZ22:BC22"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="V21:Z21"/>
+    <mergeCell ref="AA21:AQ21"/>
+    <mergeCell ref="AZ21:BC21"/>
+    <mergeCell ref="BH22:BK22"/>
+    <mergeCell ref="BL22:BO22"/>
+    <mergeCell ref="P21:U21"/>
+    <mergeCell ref="P22:U22"/>
+    <mergeCell ref="BD21:BG21"/>
+    <mergeCell ref="BD22:BG22"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AA20:AQ20"/>
+    <mergeCell ref="AZ20:BC20"/>
+    <mergeCell ref="BH20:BK20"/>
+    <mergeCell ref="BL20:BO20"/>
+    <mergeCell ref="P20:U20"/>
+    <mergeCell ref="BD20:BG20"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AV20:AY20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="AA19:AQ19"/>
+    <mergeCell ref="AZ19:BC19"/>
+    <mergeCell ref="BH19:BK19"/>
+    <mergeCell ref="BL19:BO19"/>
+    <mergeCell ref="P19:U19"/>
+    <mergeCell ref="BD19:BG19"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="AV19:AY19"/>
+    <mergeCell ref="BH17:BK17"/>
+    <mergeCell ref="BL17:BO17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="AA18:AQ18"/>
+    <mergeCell ref="AZ18:BC18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="AA17:AQ17"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BH18:BK18"/>
+    <mergeCell ref="BL18:BO18"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="BD17:BG17"/>
+    <mergeCell ref="BD18:BG18"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV18:AY18"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="V16:Z16"/>
+    <mergeCell ref="AA16:AQ16"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BH16:BK16"/>
+    <mergeCell ref="BL16:BO16"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="BD16:BG16"/>
+    <mergeCell ref="AR16:AU16"/>
+    <mergeCell ref="AV16:AY16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="V15:Z15"/>
+    <mergeCell ref="AA15:AQ15"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="BH15:BK15"/>
+    <mergeCell ref="BL15:BO15"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="BD15:BG15"/>
+    <mergeCell ref="AR15:AU15"/>
+    <mergeCell ref="AV15:AY15"/>
+    <mergeCell ref="BH13:BK13"/>
+    <mergeCell ref="BL13:BO13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="AA14:AQ14"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="AA13:AQ13"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="BH14:BK14"/>
+    <mergeCell ref="BL14:BO14"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="BD13:BG13"/>
+    <mergeCell ref="BD14:BG14"/>
+    <mergeCell ref="AR13:AU13"/>
+    <mergeCell ref="AV13:AY13"/>
+    <mergeCell ref="AR14:AU14"/>
+    <mergeCell ref="AV14:AY14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="AA12:AQ12"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="BH12:BK12"/>
+    <mergeCell ref="BL12:BO12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="AR12:AU12"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="AA11:AQ11"/>
+    <mergeCell ref="AZ11:BC11"/>
+    <mergeCell ref="BH11:BK11"/>
+    <mergeCell ref="BL11:BO11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="BD11:BG11"/>
+    <mergeCell ref="AR11:AU11"/>
+    <mergeCell ref="AV11:AY11"/>
+    <mergeCell ref="BH9:BK9"/>
+    <mergeCell ref="BL9:BO9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="AZ10:BC10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA9:AQ9"/>
+    <mergeCell ref="AZ9:BC9"/>
+    <mergeCell ref="BH10:BK10"/>
+    <mergeCell ref="BL10:BO10"/>
+    <mergeCell ref="AR9:AU9"/>
+    <mergeCell ref="AV9:AY9"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="AA8:AQ8"/>
+    <mergeCell ref="AZ8:BC8"/>
+    <mergeCell ref="BH8:BK8"/>
+    <mergeCell ref="BL8:BO8"/>
+    <mergeCell ref="AR8:AU8"/>
+    <mergeCell ref="AV8:AY8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="AA7:AQ7"/>
+    <mergeCell ref="AZ7:BC7"/>
+    <mergeCell ref="BH7:BK7"/>
+    <mergeCell ref="BL7:BO7"/>
+    <mergeCell ref="AR7:AU7"/>
+    <mergeCell ref="AV7:AY7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="AA5:AQ5"/>
+    <mergeCell ref="AZ5:BC5"/>
+    <mergeCell ref="BH5:BK5"/>
+    <mergeCell ref="BL5:BO5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA6:AQ6"/>
+    <mergeCell ref="AZ6:BC6"/>
+    <mergeCell ref="BH6:BK6"/>
+    <mergeCell ref="BL6:BO6"/>
     <mergeCell ref="BH2:BK2"/>
     <mergeCell ref="BL2:BO2"/>
     <mergeCell ref="BH3:BK3"/>
@@ -3206,275 +3475,51 @@
     <mergeCell ref="AZ4:BC4"/>
     <mergeCell ref="BH4:BK4"/>
     <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="AA5:AQ5"/>
-    <mergeCell ref="AZ5:BC5"/>
-    <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="BL5:BO5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AA6:AQ6"/>
-    <mergeCell ref="AZ6:BC6"/>
-    <mergeCell ref="BH6:BK6"/>
-    <mergeCell ref="BL6:BO6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="AA7:AQ7"/>
-    <mergeCell ref="AZ7:BC7"/>
-    <mergeCell ref="BH7:BK7"/>
-    <mergeCell ref="BL7:BO7"/>
-    <mergeCell ref="AR7:AU7"/>
-    <mergeCell ref="AV7:AY7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="AA8:AQ8"/>
-    <mergeCell ref="AZ8:BC8"/>
-    <mergeCell ref="BH8:BK8"/>
-    <mergeCell ref="BL8:BO8"/>
-    <mergeCell ref="AR8:AU8"/>
-    <mergeCell ref="AV8:AY8"/>
-    <mergeCell ref="BH9:BK9"/>
-    <mergeCell ref="BL9:BO9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="AZ10:BC10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA9:AQ9"/>
-    <mergeCell ref="AZ9:BC9"/>
-    <mergeCell ref="BH10:BK10"/>
-    <mergeCell ref="BL10:BO10"/>
-    <mergeCell ref="AR9:AU9"/>
-    <mergeCell ref="AV9:AY9"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="AA11:AQ11"/>
-    <mergeCell ref="AZ11:BC11"/>
-    <mergeCell ref="BH11:BK11"/>
-    <mergeCell ref="BL11:BO11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="BD11:BG11"/>
-    <mergeCell ref="AR11:AU11"/>
-    <mergeCell ref="AV11:AY11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="V12:Z12"/>
-    <mergeCell ref="AA12:AQ12"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="BH12:BK12"/>
-    <mergeCell ref="BL12:BO12"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="AR12:AU12"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="BH13:BK13"/>
-    <mergeCell ref="BL13:BO13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="AA14:AQ14"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="AA13:AQ13"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="BH14:BK14"/>
-    <mergeCell ref="BL14:BO14"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="BD13:BG13"/>
-    <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="AR13:AU13"/>
-    <mergeCell ref="AV13:AY13"/>
-    <mergeCell ref="AR14:AU14"/>
-    <mergeCell ref="AV14:AY14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="V15:Z15"/>
-    <mergeCell ref="AA15:AQ15"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="BH15:BK15"/>
-    <mergeCell ref="BL15:BO15"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="BD15:BG15"/>
-    <mergeCell ref="AR15:AU15"/>
-    <mergeCell ref="AV15:AY15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="AA16:AQ16"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BH16:BK16"/>
-    <mergeCell ref="BL16:BO16"/>
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="BD16:BG16"/>
-    <mergeCell ref="AR16:AU16"/>
-    <mergeCell ref="AV16:AY16"/>
-    <mergeCell ref="BH17:BK17"/>
-    <mergeCell ref="BL17:BO17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="AA18:AQ18"/>
-    <mergeCell ref="AZ18:BC18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="AA17:AQ17"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BH18:BK18"/>
-    <mergeCell ref="BL18:BO18"/>
-    <mergeCell ref="P17:U17"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="BD17:BG17"/>
-    <mergeCell ref="BD18:BG18"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV18:AY18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="AA19:AQ19"/>
-    <mergeCell ref="AZ19:BC19"/>
-    <mergeCell ref="BH19:BK19"/>
-    <mergeCell ref="BL19:BO19"/>
-    <mergeCell ref="P19:U19"/>
-    <mergeCell ref="BD19:BG19"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="AA20:AQ20"/>
-    <mergeCell ref="AZ20:BC20"/>
-    <mergeCell ref="BH20:BK20"/>
-    <mergeCell ref="BL20:BO20"/>
-    <mergeCell ref="P20:U20"/>
-    <mergeCell ref="BD20:BG20"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AV20:AY20"/>
-    <mergeCell ref="BH21:BK21"/>
-    <mergeCell ref="BL21:BO21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="AA22:AQ22"/>
-    <mergeCell ref="AZ22:BC22"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="V21:Z21"/>
-    <mergeCell ref="AA21:AQ21"/>
-    <mergeCell ref="AZ21:BC21"/>
-    <mergeCell ref="BH22:BK22"/>
-    <mergeCell ref="BL22:BO22"/>
-    <mergeCell ref="P21:U21"/>
-    <mergeCell ref="P22:U22"/>
-    <mergeCell ref="BD21:BG21"/>
-    <mergeCell ref="BD22:BG22"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="V23:Z23"/>
-    <mergeCell ref="AA23:AQ23"/>
-    <mergeCell ref="AZ23:BC23"/>
-    <mergeCell ref="BH23:BK23"/>
-    <mergeCell ref="BL23:BO23"/>
-    <mergeCell ref="P23:U23"/>
-    <mergeCell ref="BD23:BG23"/>
-    <mergeCell ref="AR23:AU23"/>
-    <mergeCell ref="AV23:AY23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="AA24:AQ24"/>
-    <mergeCell ref="AZ24:BC24"/>
-    <mergeCell ref="BH24:BK24"/>
-    <mergeCell ref="BL24:BO24"/>
-    <mergeCell ref="P24:U24"/>
-    <mergeCell ref="BD24:BG24"/>
-    <mergeCell ref="AR24:AU24"/>
-    <mergeCell ref="AV24:AY24"/>
-    <mergeCell ref="BH25:BK25"/>
-    <mergeCell ref="BL25:BO25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="AA26:AQ26"/>
-    <mergeCell ref="AZ26:BC26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="AA25:AQ25"/>
-    <mergeCell ref="AZ25:BC25"/>
-    <mergeCell ref="P25:U25"/>
-    <mergeCell ref="BD25:BG25"/>
-    <mergeCell ref="BD26:BG26"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AV25:AY25"/>
-    <mergeCell ref="AR26:AU26"/>
-    <mergeCell ref="AV26:AY26"/>
-    <mergeCell ref="BL27:BO27"/>
-    <mergeCell ref="BH26:BK26"/>
-    <mergeCell ref="BL26:BO26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="AA27:AQ27"/>
-    <mergeCell ref="AZ27:BC27"/>
-    <mergeCell ref="BH27:BK27"/>
-    <mergeCell ref="P26:U26"/>
-    <mergeCell ref="P27:U27"/>
-    <mergeCell ref="BD27:BG27"/>
-    <mergeCell ref="AR27:AU27"/>
-    <mergeCell ref="AV27:AY27"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BP3:BW3"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BP5:BW5"/>
+    <mergeCell ref="BP6:BW6"/>
+    <mergeCell ref="BP7:BW7"/>
+    <mergeCell ref="BP8:BW8"/>
+    <mergeCell ref="BP9:BW9"/>
+    <mergeCell ref="BP10:BW10"/>
+    <mergeCell ref="BP20:BW20"/>
+    <mergeCell ref="BP21:BW21"/>
+    <mergeCell ref="BP22:BW22"/>
+    <mergeCell ref="BP23:BW23"/>
+    <mergeCell ref="BP24:BW24"/>
+    <mergeCell ref="BP25:BW25"/>
+    <mergeCell ref="BP26:BW26"/>
+    <mergeCell ref="BP27:BW27"/>
+    <mergeCell ref="BP11:BW11"/>
+    <mergeCell ref="BP12:BW12"/>
+    <mergeCell ref="BP13:BW13"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="BP15:BW15"/>
+    <mergeCell ref="BP16:BW16"/>
+    <mergeCell ref="BP17:BW17"/>
+    <mergeCell ref="BP18:BW18"/>
+    <mergeCell ref="BP19:BW19"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BD3:BG3"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BD5:BG5"/>
+    <mergeCell ref="BD6:BG6"/>
+    <mergeCell ref="BD7:BG7"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="BD9:BG9"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AR6:AU6"/>
+    <mergeCell ref="AV6:AY6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/04_案件/UPG案障害管理表.xlsx
+++ b/document/04_案件/UPG案障害管理表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Desktop\研修更新内容\20201210\更新後\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{60DE907D-6245-455E-9FA8-583652D40D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBF3B7F-6750-454D-A789-C9CD8FA965CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>障害管理表</t>
     <rPh sb="0" eb="2">
@@ -424,12 +424,38 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>if文で文字列の比較を「==」を使っていたため「.equals」に変更しました</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宮田</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +476,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -509,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,6 +574,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,31 +607,16 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BW27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12:AQ12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21:AQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1029,216 +1072,216 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="20" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="10" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10" t="s">
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10" t="s">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10" t="s">
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10" t="s">
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10" t="s">
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10" t="s">
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="10" t="s">
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="10"/>
-      <c r="BP2" s="10" t="s">
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="BQ2" s="10"/>
-      <c r="BR2" s="10"/>
-      <c r="BS2" s="10"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="10"/>
-      <c r="BV2" s="10"/>
-      <c r="BW2" s="10"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="20">
         <v>44116</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="21" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="11" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="16" t="s">
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="11" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="12">
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="20">
         <v>44118</v>
       </c>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11" t="s">
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="12">
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="20">
         <v>44118</v>
       </c>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11" t="s">
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="12">
+      <c r="BI3" s="19"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="19"/>
+      <c r="BL3" s="20">
         <v>44123</v>
       </c>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="11"/>
-      <c r="BV3" s="11"/>
-      <c r="BW3" s="11"/>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
+      <c r="BO3" s="19"/>
+      <c r="BP3" s="19"/>
+      <c r="BQ3" s="19"/>
+      <c r="BR3" s="19"/>
+      <c r="BS3" s="19"/>
+      <c r="BT3" s="19"/>
+      <c r="BU3" s="19"/>
+      <c r="BV3" s="19"/>
+      <c r="BW3" s="19"/>
     </row>
     <row r="4" spans="1:75" ht="67" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="15">
         <v>44167</v>
       </c>
       <c r="C4" s="13"/>
@@ -1258,12 +1301,12 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
       <c r="V4" s="13" t="s">
         <v>22</v>
       </c>
@@ -1271,40 +1314,40 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
       <c r="AR4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS4" s="13"/>
       <c r="AT4" s="13"/>
       <c r="AU4" s="13"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
       <c r="AZ4" s="13"/>
       <c r="BA4" s="13"/>
       <c r="BB4" s="13"/>
       <c r="BC4" s="13"/>
-      <c r="BD4" s="14"/>
+      <c r="BD4" s="15"/>
       <c r="BE4" s="13"/>
       <c r="BF4" s="13"/>
       <c r="BG4" s="13"/>
@@ -1330,7 +1373,7 @@
         <f t="shared" ref="A5:A9" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>44167</v>
       </c>
       <c r="C5" s="13"/>
@@ -1350,12 +1393,12 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
       <c r="V5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1363,40 +1406,40 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
       <c r="AR5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS5" s="13"/>
       <c r="AT5" s="13"/>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
       <c r="AZ5" s="13"/>
       <c r="BA5" s="13"/>
       <c r="BB5" s="13"/>
       <c r="BC5" s="13"/>
-      <c r="BD5" s="14"/>
+      <c r="BD5" s="15"/>
       <c r="BE5" s="13"/>
       <c r="BF5" s="13"/>
       <c r="BG5" s="13"/>
@@ -1422,7 +1465,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>44167</v>
       </c>
       <c r="C6" s="13"/>
@@ -1442,12 +1485,12 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
       <c r="V6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1455,40 +1498,40 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
       <c r="AR6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS6" s="13"/>
       <c r="AT6" s="13"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
       <c r="AZ6" s="13"/>
       <c r="BA6" s="13"/>
       <c r="BB6" s="13"/>
       <c r="BC6" s="13"/>
-      <c r="BD6" s="14"/>
+      <c r="BD6" s="15"/>
       <c r="BE6" s="13"/>
       <c r="BF6" s="13"/>
       <c r="BG6" s="13"/>
@@ -1514,7 +1557,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="15">
         <v>44167</v>
       </c>
       <c r="C7" s="13"/>
@@ -1534,12 +1577,12 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
       <c r="V7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1547,40 +1590,40 @@
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
       <c r="AR7" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS7" s="13"/>
       <c r="AT7" s="13"/>
       <c r="AU7" s="13"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="13"/>
       <c r="BB7" s="13"/>
       <c r="BC7" s="13"/>
-      <c r="BD7" s="14"/>
+      <c r="BD7" s="15"/>
       <c r="BE7" s="13"/>
       <c r="BF7" s="13"/>
       <c r="BG7" s="13"/>
@@ -1606,7 +1649,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>44175</v>
       </c>
       <c r="C8" s="13"/>
@@ -1626,12 +1669,12 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
       <c r="V8" s="13" t="s">
         <v>31</v>
       </c>
@@ -1639,43 +1682,49 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
       <c r="AR8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
       <c r="AU8" s="13"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="13"/>
+      <c r="AV8" s="15">
+        <v>44175</v>
+      </c>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="BA8" s="13"/>
       <c r="BB8" s="13"/>
       <c r="BC8" s="13"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
+      <c r="BD8" s="23">
+        <v>44175</v>
+      </c>
+      <c r="BE8" s="24"/>
+      <c r="BF8" s="24"/>
+      <c r="BG8" s="24"/>
       <c r="BH8" s="13"/>
       <c r="BI8" s="13"/>
       <c r="BJ8" s="13"/>
@@ -1684,21 +1733,23 @@
       <c r="BM8" s="13"/>
       <c r="BN8" s="13"/>
       <c r="BO8" s="13"/>
-      <c r="BP8" s="13"/>
-      <c r="BQ8" s="13"/>
-      <c r="BR8" s="13"/>
-      <c r="BS8" s="13"/>
-      <c r="BT8" s="13"/>
-      <c r="BU8" s="13"/>
-      <c r="BV8" s="13"/>
-      <c r="BW8" s="13"/>
+      <c r="BP8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ8" s="22"/>
+      <c r="BR8" s="22"/>
+      <c r="BS8" s="22"/>
+      <c r="BT8" s="22"/>
+      <c r="BU8" s="22"/>
+      <c r="BV8" s="22"/>
+      <c r="BW8" s="22"/>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -1712,39 +1763,39 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
       <c r="AU9" s="13"/>
-      <c r="AV9" s="14"/>
+      <c r="AV9" s="15"/>
       <c r="AW9" s="13"/>
       <c r="AX9" s="13"/>
       <c r="AY9" s="13"/>
@@ -1752,7 +1803,7 @@
       <c r="BA9" s="13"/>
       <c r="BB9" s="13"/>
       <c r="BC9" s="13"/>
-      <c r="BD9" s="14"/>
+      <c r="BD9" s="15"/>
       <c r="BE9" s="13"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="13"/>
@@ -1760,7 +1811,7 @@
       <c r="BI9" s="13"/>
       <c r="BJ9" s="13"/>
       <c r="BK9" s="13"/>
-      <c r="BL9" s="14"/>
+      <c r="BL9" s="15"/>
       <c r="BM9" s="13"/>
       <c r="BN9" s="13"/>
       <c r="BO9" s="13"/>
@@ -1778,7 +1829,7 @@
         <f>ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1792,12 +1843,12 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -1824,7 +1875,7 @@
       <c r="AS10" s="13"/>
       <c r="AT10" s="13"/>
       <c r="AU10" s="13"/>
-      <c r="AV10" s="14"/>
+      <c r="AV10" s="15"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="13"/>
@@ -1858,7 +1909,7 @@
         <f t="shared" ref="A11:A12" si="1">ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1872,12 +1923,12 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
@@ -1904,7 +1955,7 @@
       <c r="AS11" s="13"/>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
-      <c r="AV11" s="14"/>
+      <c r="AV11" s="15"/>
       <c r="AW11" s="13"/>
       <c r="AX11" s="13"/>
       <c r="AY11" s="13"/>
@@ -1938,7 +1989,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -1952,12 +2003,12 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
@@ -1984,7 +2035,7 @@
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
-      <c r="AV12" s="14"/>
+      <c r="AV12" s="15"/>
       <c r="AW12" s="13"/>
       <c r="AX12" s="13"/>
       <c r="AY12" s="13"/>
@@ -2017,7 +2068,7 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -2031,39 +2082,39 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
       <c r="AR13" s="13"/>
       <c r="AS13" s="13"/>
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
-      <c r="AV13" s="14"/>
+      <c r="AV13" s="15"/>
       <c r="AW13" s="13"/>
       <c r="AX13" s="13"/>
       <c r="AY13" s="13"/>
@@ -2071,7 +2122,7 @@
       <c r="BA13" s="13"/>
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>
-      <c r="BD13" s="14"/>
+      <c r="BD13" s="15"/>
       <c r="BE13" s="13"/>
       <c r="BF13" s="13"/>
       <c r="BG13" s="13"/>
@@ -2096,7 +2147,7 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -2110,39 +2161,39 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
       <c r="AR14" s="13"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
-      <c r="AV14" s="14"/>
+      <c r="AV14" s="15"/>
       <c r="AW14" s="13"/>
       <c r="AX14" s="13"/>
       <c r="AY14" s="13"/>
@@ -2150,7 +2201,7 @@
       <c r="BA14" s="13"/>
       <c r="BB14" s="13"/>
       <c r="BC14" s="13"/>
-      <c r="BD14" s="14"/>
+      <c r="BD14" s="15"/>
       <c r="BE14" s="13"/>
       <c r="BF14" s="13"/>
       <c r="BG14" s="13"/>
@@ -2175,7 +2226,7 @@
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2189,39 +2240,39 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
       <c r="AR15" s="13"/>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
       <c r="AU15" s="13"/>
-      <c r="AV15" s="14"/>
+      <c r="AV15" s="15"/>
       <c r="AW15" s="13"/>
       <c r="AX15" s="13"/>
       <c r="AY15" s="13"/>
@@ -2229,7 +2280,7 @@
       <c r="BA15" s="13"/>
       <c r="BB15" s="13"/>
       <c r="BC15" s="13"/>
-      <c r="BD15" s="14"/>
+      <c r="BD15" s="15"/>
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
       <c r="BG15" s="13"/>
@@ -2254,7 +2305,7 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2268,39 +2319,39 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
       <c r="AR16" s="13"/>
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
       <c r="AU16" s="13"/>
-      <c r="AV16" s="14"/>
+      <c r="AV16" s="15"/>
       <c r="AW16" s="13"/>
       <c r="AX16" s="13"/>
       <c r="AY16" s="13"/>
@@ -2308,7 +2359,7 @@
       <c r="BA16" s="13"/>
       <c r="BB16" s="13"/>
       <c r="BC16" s="13"/>
-      <c r="BD16" s="14"/>
+      <c r="BD16" s="15"/>
       <c r="BE16" s="13"/>
       <c r="BF16" s="13"/>
       <c r="BG16" s="13"/>
@@ -2333,7 +2384,7 @@
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -2347,39 +2398,39 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
       <c r="AR17" s="13"/>
       <c r="AS17" s="13"/>
       <c r="AT17" s="13"/>
       <c r="AU17" s="13"/>
-      <c r="AV17" s="14"/>
+      <c r="AV17" s="15"/>
       <c r="AW17" s="13"/>
       <c r="AX17" s="13"/>
       <c r="AY17" s="13"/>
@@ -2387,7 +2438,7 @@
       <c r="BA17" s="13"/>
       <c r="BB17" s="13"/>
       <c r="BC17" s="13"/>
-      <c r="BD17" s="14"/>
+      <c r="BD17" s="15"/>
       <c r="BE17" s="13"/>
       <c r="BF17" s="13"/>
       <c r="BG17" s="13"/>
@@ -2412,7 +2463,7 @@
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -2426,39 +2477,39 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
       <c r="AU18" s="13"/>
-      <c r="AV18" s="14"/>
+      <c r="AV18" s="15"/>
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="13"/>
@@ -2466,7 +2517,7 @@
       <c r="BA18" s="13"/>
       <c r="BB18" s="13"/>
       <c r="BC18" s="13"/>
-      <c r="BD18" s="14"/>
+      <c r="BD18" s="15"/>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
       <c r="BG18" s="13"/>
@@ -2503,34 +2554,34 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
       <c r="AR19" s="13"/>
       <c r="AS19" s="13"/>
       <c r="AT19" s="13"/>
@@ -2580,34 +2631,34 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
       <c r="AR20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
@@ -2657,34 +2708,34 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
       <c r="AR21" s="13"/>
       <c r="AS21" s="13"/>
       <c r="AT21" s="13"/>
@@ -2734,34 +2785,34 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
       <c r="AR22" s="13"/>
       <c r="AS22" s="13"/>
       <c r="AT22" s="13"/>
@@ -2811,34 +2862,34 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15"/>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="15"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
       <c r="AR23" s="13"/>
       <c r="AS23" s="13"/>
       <c r="AT23" s="13"/>
@@ -2888,34 +2939,34 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="15"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="15"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
       <c r="AR24" s="13"/>
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
@@ -2965,34 +3016,34 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
       <c r="AR25" s="13"/>
       <c r="AS25" s="13"/>
       <c r="AT25" s="13"/>
@@ -3042,34 +3093,34 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
       <c r="AR26" s="13"/>
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
@@ -3119,34 +3170,34 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="15"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="15"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
       <c r="AR27" s="13"/>
       <c r="AS27" s="13"/>
       <c r="AT27" s="13"/>
@@ -3182,75 +3233,251 @@
     </row>
   </sheetData>
   <mergeCells count="338">
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="P10:U10"/>
-    <mergeCell ref="BL27:BO27"/>
-    <mergeCell ref="BH26:BK26"/>
-    <mergeCell ref="BL26:BO26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="AA27:AQ27"/>
-    <mergeCell ref="AZ27:BC27"/>
-    <mergeCell ref="BH27:BK27"/>
-    <mergeCell ref="P26:U26"/>
-    <mergeCell ref="P27:U27"/>
-    <mergeCell ref="BD27:BG27"/>
-    <mergeCell ref="AR27:AU27"/>
-    <mergeCell ref="AV27:AY27"/>
-    <mergeCell ref="BH25:BK25"/>
-    <mergeCell ref="BL25:BO25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="AA26:AQ26"/>
-    <mergeCell ref="AZ26:BC26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="AA25:AQ25"/>
-    <mergeCell ref="AZ25:BC25"/>
-    <mergeCell ref="P25:U25"/>
-    <mergeCell ref="BD25:BG25"/>
-    <mergeCell ref="BD26:BG26"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AV25:AY25"/>
-    <mergeCell ref="AR26:AU26"/>
-    <mergeCell ref="AV26:AY26"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="AA24:AQ24"/>
-    <mergeCell ref="AZ24:BC24"/>
-    <mergeCell ref="BH24:BK24"/>
-    <mergeCell ref="BL24:BO24"/>
-    <mergeCell ref="P24:U24"/>
-    <mergeCell ref="BD24:BG24"/>
-    <mergeCell ref="AR24:AU24"/>
-    <mergeCell ref="AV24:AY24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="V23:Z23"/>
-    <mergeCell ref="AA23:AQ23"/>
-    <mergeCell ref="AZ23:BC23"/>
-    <mergeCell ref="BH23:BK23"/>
-    <mergeCell ref="BL23:BO23"/>
-    <mergeCell ref="P23:U23"/>
-    <mergeCell ref="BD23:BG23"/>
-    <mergeCell ref="AR23:AU23"/>
-    <mergeCell ref="AV23:AY23"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AR6:AU6"/>
+    <mergeCell ref="AV6:AY6"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BD3:BG3"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BD5:BG5"/>
+    <mergeCell ref="BD6:BG6"/>
+    <mergeCell ref="BD7:BG7"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="BD9:BG9"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="BP20:BW20"/>
+    <mergeCell ref="BP21:BW21"/>
+    <mergeCell ref="BP22:BW22"/>
+    <mergeCell ref="BP23:BW23"/>
+    <mergeCell ref="BP24:BW24"/>
+    <mergeCell ref="BP25:BW25"/>
+    <mergeCell ref="BP26:BW26"/>
+    <mergeCell ref="BP27:BW27"/>
+    <mergeCell ref="BP11:BW11"/>
+    <mergeCell ref="BP12:BW12"/>
+    <mergeCell ref="BP13:BW13"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="BP15:BW15"/>
+    <mergeCell ref="BP16:BW16"/>
+    <mergeCell ref="BP17:BW17"/>
+    <mergeCell ref="BP18:BW18"/>
+    <mergeCell ref="BP19:BW19"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BP3:BW3"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BP5:BW5"/>
+    <mergeCell ref="BP6:BW6"/>
+    <mergeCell ref="BP7:BW7"/>
+    <mergeCell ref="BP8:BW8"/>
+    <mergeCell ref="BP9:BW9"/>
+    <mergeCell ref="BP10:BW10"/>
+    <mergeCell ref="BH2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BH3:BK3"/>
+    <mergeCell ref="BL3:BO3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AQ4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AQ3"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AQ2"/>
+    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="AA5:AQ5"/>
+    <mergeCell ref="AZ5:BC5"/>
+    <mergeCell ref="BH5:BK5"/>
+    <mergeCell ref="BL5:BO5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA6:AQ6"/>
+    <mergeCell ref="AZ6:BC6"/>
+    <mergeCell ref="BH6:BK6"/>
+    <mergeCell ref="BL6:BO6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="AA7:AQ7"/>
+    <mergeCell ref="AZ7:BC7"/>
+    <mergeCell ref="BH7:BK7"/>
+    <mergeCell ref="BL7:BO7"/>
+    <mergeCell ref="AR7:AU7"/>
+    <mergeCell ref="AV7:AY7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="AA8:AQ8"/>
+    <mergeCell ref="AZ8:BC8"/>
+    <mergeCell ref="BH8:BK8"/>
+    <mergeCell ref="BL8:BO8"/>
+    <mergeCell ref="AR8:AU8"/>
+    <mergeCell ref="AV8:AY8"/>
+    <mergeCell ref="BH9:BK9"/>
+    <mergeCell ref="BL9:BO9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="AZ10:BC10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA9:AQ9"/>
+    <mergeCell ref="AZ9:BC9"/>
+    <mergeCell ref="BH10:BK10"/>
+    <mergeCell ref="BL10:BO10"/>
+    <mergeCell ref="AR9:AU9"/>
+    <mergeCell ref="AV9:AY9"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="AA11:AQ11"/>
+    <mergeCell ref="AZ11:BC11"/>
+    <mergeCell ref="BH11:BK11"/>
+    <mergeCell ref="BL11:BO11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="BD11:BG11"/>
+    <mergeCell ref="AR11:AU11"/>
+    <mergeCell ref="AV11:AY11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="AA12:AQ12"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="BH12:BK12"/>
+    <mergeCell ref="BL12:BO12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="AR12:AU12"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="BH13:BK13"/>
+    <mergeCell ref="BL13:BO13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="AA14:AQ14"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="AA13:AQ13"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="BH14:BK14"/>
+    <mergeCell ref="BL14:BO14"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="BD13:BG13"/>
+    <mergeCell ref="BD14:BG14"/>
+    <mergeCell ref="AR13:AU13"/>
+    <mergeCell ref="AV13:AY13"/>
+    <mergeCell ref="AR14:AU14"/>
+    <mergeCell ref="AV14:AY14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="V15:Z15"/>
+    <mergeCell ref="AA15:AQ15"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="BH15:BK15"/>
+    <mergeCell ref="BL15:BO15"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="BD15:BG15"/>
+    <mergeCell ref="AR15:AU15"/>
+    <mergeCell ref="AV15:AY15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="V16:Z16"/>
+    <mergeCell ref="AA16:AQ16"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BH16:BK16"/>
+    <mergeCell ref="BL16:BO16"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="BD16:BG16"/>
+    <mergeCell ref="AR16:AU16"/>
+    <mergeCell ref="AV16:AY16"/>
+    <mergeCell ref="BH17:BK17"/>
+    <mergeCell ref="BL17:BO17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="AA18:AQ18"/>
+    <mergeCell ref="AZ18:BC18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="AA17:AQ17"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BH18:BK18"/>
+    <mergeCell ref="BL18:BO18"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="BD17:BG17"/>
+    <mergeCell ref="BD18:BG18"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV18:AY18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="AA19:AQ19"/>
+    <mergeCell ref="AZ19:BC19"/>
+    <mergeCell ref="BH19:BK19"/>
+    <mergeCell ref="BL19:BO19"/>
+    <mergeCell ref="P19:U19"/>
+    <mergeCell ref="BD19:BG19"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="AV19:AY19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AA20:AQ20"/>
+    <mergeCell ref="AZ20:BC20"/>
+    <mergeCell ref="BH20:BK20"/>
+    <mergeCell ref="BL20:BO20"/>
+    <mergeCell ref="P20:U20"/>
+    <mergeCell ref="BD20:BG20"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AV20:AY20"/>
     <mergeCell ref="BH21:BK21"/>
     <mergeCell ref="BL21:BO21"/>
     <mergeCell ref="B22:E22"/>
@@ -3275,251 +3502,75 @@
     <mergeCell ref="AV21:AY21"/>
     <mergeCell ref="AR22:AU22"/>
     <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="AA20:AQ20"/>
-    <mergeCell ref="AZ20:BC20"/>
-    <mergeCell ref="BH20:BK20"/>
-    <mergeCell ref="BL20:BO20"/>
-    <mergeCell ref="P20:U20"/>
-    <mergeCell ref="BD20:BG20"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AV20:AY20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="AA19:AQ19"/>
-    <mergeCell ref="AZ19:BC19"/>
-    <mergeCell ref="BH19:BK19"/>
-    <mergeCell ref="BL19:BO19"/>
-    <mergeCell ref="P19:U19"/>
-    <mergeCell ref="BD19:BG19"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="BH17:BK17"/>
-    <mergeCell ref="BL17:BO17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="AA18:AQ18"/>
-    <mergeCell ref="AZ18:BC18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="AA17:AQ17"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BH18:BK18"/>
-    <mergeCell ref="BL18:BO18"/>
-    <mergeCell ref="P17:U17"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="BD17:BG17"/>
-    <mergeCell ref="BD18:BG18"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV18:AY18"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="AA16:AQ16"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BH16:BK16"/>
-    <mergeCell ref="BL16:BO16"/>
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="BD16:BG16"/>
-    <mergeCell ref="AR16:AU16"/>
-    <mergeCell ref="AV16:AY16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="V15:Z15"/>
-    <mergeCell ref="AA15:AQ15"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="BH15:BK15"/>
-    <mergeCell ref="BL15:BO15"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="BD15:BG15"/>
-    <mergeCell ref="AR15:AU15"/>
-    <mergeCell ref="AV15:AY15"/>
-    <mergeCell ref="BH13:BK13"/>
-    <mergeCell ref="BL13:BO13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="AA14:AQ14"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="AA13:AQ13"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="BH14:BK14"/>
-    <mergeCell ref="BL14:BO14"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="BD13:BG13"/>
-    <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="AR13:AU13"/>
-    <mergeCell ref="AV13:AY13"/>
-    <mergeCell ref="AR14:AU14"/>
-    <mergeCell ref="AV14:AY14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="V12:Z12"/>
-    <mergeCell ref="AA12:AQ12"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="BH12:BK12"/>
-    <mergeCell ref="BL12:BO12"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="AR12:AU12"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="AA11:AQ11"/>
-    <mergeCell ref="AZ11:BC11"/>
-    <mergeCell ref="BH11:BK11"/>
-    <mergeCell ref="BL11:BO11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="BD11:BG11"/>
-    <mergeCell ref="AR11:AU11"/>
-    <mergeCell ref="AV11:AY11"/>
-    <mergeCell ref="BH9:BK9"/>
-    <mergeCell ref="BL9:BO9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="AZ10:BC10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA9:AQ9"/>
-    <mergeCell ref="AZ9:BC9"/>
-    <mergeCell ref="BH10:BK10"/>
-    <mergeCell ref="BL10:BO10"/>
-    <mergeCell ref="AR9:AU9"/>
-    <mergeCell ref="AV9:AY9"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="AA8:AQ8"/>
-    <mergeCell ref="AZ8:BC8"/>
-    <mergeCell ref="BH8:BK8"/>
-    <mergeCell ref="BL8:BO8"/>
-    <mergeCell ref="AR8:AU8"/>
-    <mergeCell ref="AV8:AY8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="AA7:AQ7"/>
-    <mergeCell ref="AZ7:BC7"/>
-    <mergeCell ref="BH7:BK7"/>
-    <mergeCell ref="BL7:BO7"/>
-    <mergeCell ref="AR7:AU7"/>
-    <mergeCell ref="AV7:AY7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="AA5:AQ5"/>
-    <mergeCell ref="AZ5:BC5"/>
-    <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="BL5:BO5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AA6:AQ6"/>
-    <mergeCell ref="AZ6:BC6"/>
-    <mergeCell ref="BH6:BK6"/>
-    <mergeCell ref="BL6:BO6"/>
-    <mergeCell ref="BH2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BH3:BK3"/>
-    <mergeCell ref="BL3:BO3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AQ4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AQ3"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AQ2"/>
-    <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BP3:BW3"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BP5:BW5"/>
-    <mergeCell ref="BP6:BW6"/>
-    <mergeCell ref="BP7:BW7"/>
-    <mergeCell ref="BP8:BW8"/>
-    <mergeCell ref="BP9:BW9"/>
-    <mergeCell ref="BP10:BW10"/>
-    <mergeCell ref="BP20:BW20"/>
-    <mergeCell ref="BP21:BW21"/>
-    <mergeCell ref="BP22:BW22"/>
-    <mergeCell ref="BP23:BW23"/>
-    <mergeCell ref="BP24:BW24"/>
-    <mergeCell ref="BP25:BW25"/>
-    <mergeCell ref="BP26:BW26"/>
-    <mergeCell ref="BP27:BW27"/>
-    <mergeCell ref="BP11:BW11"/>
-    <mergeCell ref="BP12:BW12"/>
-    <mergeCell ref="BP13:BW13"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="BP15:BW15"/>
-    <mergeCell ref="BP16:BW16"/>
-    <mergeCell ref="BP17:BW17"/>
-    <mergeCell ref="BP18:BW18"/>
-    <mergeCell ref="BP19:BW19"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BD3:BG3"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="BD6:BG6"/>
-    <mergeCell ref="BD7:BG7"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="BD9:BG9"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AR6:AU6"/>
-    <mergeCell ref="AV6:AY6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="V23:Z23"/>
+    <mergeCell ref="AA23:AQ23"/>
+    <mergeCell ref="AZ23:BC23"/>
+    <mergeCell ref="BH23:BK23"/>
+    <mergeCell ref="BL23:BO23"/>
+    <mergeCell ref="P23:U23"/>
+    <mergeCell ref="BD23:BG23"/>
+    <mergeCell ref="AR23:AU23"/>
+    <mergeCell ref="AV23:AY23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="AA24:AQ24"/>
+    <mergeCell ref="AZ24:BC24"/>
+    <mergeCell ref="BH24:BK24"/>
+    <mergeCell ref="BL24:BO24"/>
+    <mergeCell ref="P24:U24"/>
+    <mergeCell ref="BD24:BG24"/>
+    <mergeCell ref="AR24:AU24"/>
+    <mergeCell ref="AV24:AY24"/>
+    <mergeCell ref="BH25:BK25"/>
+    <mergeCell ref="BL25:BO25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="AA26:AQ26"/>
+    <mergeCell ref="AZ26:BC26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AA25:AQ25"/>
+    <mergeCell ref="AZ25:BC25"/>
+    <mergeCell ref="P25:U25"/>
+    <mergeCell ref="BD25:BG25"/>
+    <mergeCell ref="BD26:BG26"/>
+    <mergeCell ref="AR25:AU25"/>
+    <mergeCell ref="AV25:AY25"/>
+    <mergeCell ref="AR26:AU26"/>
+    <mergeCell ref="AV26:AY26"/>
+    <mergeCell ref="BL27:BO27"/>
+    <mergeCell ref="BH26:BK26"/>
+    <mergeCell ref="BL26:BO26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="AA27:AQ27"/>
+    <mergeCell ref="AZ27:BC27"/>
+    <mergeCell ref="BH27:BK27"/>
+    <mergeCell ref="P26:U26"/>
+    <mergeCell ref="P27:U27"/>
+    <mergeCell ref="BD27:BG27"/>
+    <mergeCell ref="AR27:AU27"/>
+    <mergeCell ref="AV27:AY27"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/04_案件/UPG案障害管理表.xlsx
+++ b/document/04_案件/UPG案障害管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBF3B7F-6750-454D-A789-C9CD8FA965CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856011B7-59F4-4A67-89E7-05E6F413B7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,28 +425,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>if文で文字列の比較を「==」を使っていたため「.equals」に変更しました</t>
-    <rPh sb="2" eb="3">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヘンコウ</t>
+    <t>宮田</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>宮田</t>
-    <rPh sb="0" eb="2">
-      <t>ミヤタ</t>
+    <t>if文で文字列の比較を「==」を使っていたため、「.equals」に変更しました</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -574,30 +574,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,16 +583,40 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BW27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21:AQ21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BP9" sqref="BP9:BW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1072,216 +1072,216 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="10" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="18" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18" t="s">
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18" t="s">
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18" t="s">
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18" t="s">
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18" t="s">
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18" t="s">
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18" t="s">
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18" t="s">
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="18"/>
-      <c r="BW2" s="18"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="12">
         <v>44116</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="11" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="19" t="s">
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="21" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="19" t="s">
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="20">
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="12">
         <v>44118</v>
       </c>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19" t="s">
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="20">
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="12">
         <v>44118</v>
       </c>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19" t="s">
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="20">
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="12">
         <v>44123</v>
       </c>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="11"/>
+      <c r="BV3" s="11"/>
+      <c r="BW3" s="11"/>
     </row>
     <row r="4" spans="1:75" ht="67" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>44167</v>
       </c>
       <c r="C4" s="13"/>
@@ -1301,12 +1301,12 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
       <c r="V4" s="13" t="s">
         <v>22</v>
       </c>
@@ -1314,40 +1314,40 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
-      <c r="AA4" s="14" t="s">
+      <c r="AA4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
       <c r="AR4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS4" s="13"/>
       <c r="AT4" s="13"/>
       <c r="AU4" s="13"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
       <c r="AZ4" s="13"/>
       <c r="BA4" s="13"/>
       <c r="BB4" s="13"/>
       <c r="BC4" s="13"/>
-      <c r="BD4" s="15"/>
+      <c r="BD4" s="14"/>
       <c r="BE4" s="13"/>
       <c r="BF4" s="13"/>
       <c r="BG4" s="13"/>
@@ -1373,7 +1373,7 @@
         <f t="shared" ref="A5:A9" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>44167</v>
       </c>
       <c r="C5" s="13"/>
@@ -1393,12 +1393,12 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
       <c r="V5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1406,40 +1406,40 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
-      <c r="AA5" s="14" t="s">
+      <c r="AA5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
       <c r="AR5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS5" s="13"/>
       <c r="AT5" s="13"/>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
       <c r="AZ5" s="13"/>
       <c r="BA5" s="13"/>
       <c r="BB5" s="13"/>
       <c r="BC5" s="13"/>
-      <c r="BD5" s="15"/>
+      <c r="BD5" s="14"/>
       <c r="BE5" s="13"/>
       <c r="BF5" s="13"/>
       <c r="BG5" s="13"/>
@@ -1465,7 +1465,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>44167</v>
       </c>
       <c r="C6" s="13"/>
@@ -1485,12 +1485,12 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
       <c r="V6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1498,40 +1498,40 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
-      <c r="AA6" s="14" t="s">
+      <c r="AA6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
       <c r="AR6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS6" s="13"/>
       <c r="AT6" s="13"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
       <c r="AZ6" s="13"/>
       <c r="BA6" s="13"/>
       <c r="BB6" s="13"/>
       <c r="BC6" s="13"/>
-      <c r="BD6" s="15"/>
+      <c r="BD6" s="14"/>
       <c r="BE6" s="13"/>
       <c r="BF6" s="13"/>
       <c r="BG6" s="13"/>
@@ -1557,7 +1557,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>44167</v>
       </c>
       <c r="C7" s="13"/>
@@ -1577,12 +1577,12 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
       <c r="V7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1590,40 +1590,40 @@
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
-      <c r="AA7" s="14" t="s">
+      <c r="AA7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
       <c r="AR7" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AS7" s="13"/>
       <c r="AT7" s="13"/>
       <c r="AU7" s="13"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="13"/>
       <c r="BB7" s="13"/>
       <c r="BC7" s="13"/>
-      <c r="BD7" s="15"/>
+      <c r="BD7" s="14"/>
       <c r="BE7" s="13"/>
       <c r="BF7" s="13"/>
       <c r="BG7" s="13"/>
@@ -1649,7 +1649,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>44175</v>
       </c>
       <c r="C8" s="13"/>
@@ -1669,12 +1669,12 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
       <c r="V8" s="13" t="s">
         <v>31</v>
       </c>
@@ -1682,49 +1682,49 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
-      <c r="AA8" s="14" t="s">
+      <c r="AA8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
       <c r="AR8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
       <c r="AU8" s="13"/>
-      <c r="AV8" s="15">
+      <c r="AV8" s="14">
         <v>44175</v>
       </c>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
       <c r="AZ8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BA8" s="13"/>
       <c r="BB8" s="13"/>
       <c r="BC8" s="13"/>
-      <c r="BD8" s="23">
+      <c r="BD8" s="15">
         <v>44175</v>
       </c>
-      <c r="BE8" s="24"/>
-      <c r="BF8" s="24"/>
-      <c r="BG8" s="24"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
       <c r="BH8" s="13"/>
       <c r="BI8" s="13"/>
       <c r="BJ8" s="13"/>
@@ -1733,23 +1733,23 @@
       <c r="BM8" s="13"/>
       <c r="BN8" s="13"/>
       <c r="BO8" s="13"/>
-      <c r="BP8" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="BQ8" s="22"/>
-      <c r="BR8" s="22"/>
-      <c r="BS8" s="22"/>
-      <c r="BT8" s="22"/>
-      <c r="BU8" s="22"/>
-      <c r="BV8" s="22"/>
-      <c r="BW8" s="22"/>
+      <c r="BP8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ8" s="17"/>
+      <c r="BR8" s="17"/>
+      <c r="BS8" s="17"/>
+      <c r="BT8" s="17"/>
+      <c r="BU8" s="17"/>
+      <c r="BV8" s="17"/>
+      <c r="BW8" s="17"/>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -1763,39 +1763,39 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
       <c r="AU9" s="13"/>
-      <c r="AV9" s="15"/>
+      <c r="AV9" s="14"/>
       <c r="AW9" s="13"/>
       <c r="AX9" s="13"/>
       <c r="AY9" s="13"/>
@@ -1803,7 +1803,7 @@
       <c r="BA9" s="13"/>
       <c r="BB9" s="13"/>
       <c r="BC9" s="13"/>
-      <c r="BD9" s="15"/>
+      <c r="BD9" s="14"/>
       <c r="BE9" s="13"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="13"/>
@@ -1811,7 +1811,7 @@
       <c r="BI9" s="13"/>
       <c r="BJ9" s="13"/>
       <c r="BK9" s="13"/>
-      <c r="BL9" s="15"/>
+      <c r="BL9" s="14"/>
       <c r="BM9" s="13"/>
       <c r="BN9" s="13"/>
       <c r="BO9" s="13"/>
@@ -1829,7 +1829,7 @@
         <f>ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1843,39 +1843,39 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
       <c r="AR10" s="13"/>
       <c r="AS10" s="13"/>
       <c r="AT10" s="13"/>
       <c r="AU10" s="13"/>
-      <c r="AV10" s="15"/>
+      <c r="AV10" s="14"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="13"/>
@@ -1909,7 +1909,7 @@
         <f t="shared" ref="A11:A12" si="1">ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1923,39 +1923,39 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
       <c r="AR11" s="13"/>
       <c r="AS11" s="13"/>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
-      <c r="AV11" s="15"/>
+      <c r="AV11" s="14"/>
       <c r="AW11" s="13"/>
       <c r="AX11" s="13"/>
       <c r="AY11" s="13"/>
@@ -1989,7 +1989,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2003,39 +2003,39 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
       <c r="AU12" s="13"/>
-      <c r="AV12" s="15"/>
+      <c r="AV12" s="14"/>
       <c r="AW12" s="13"/>
       <c r="AX12" s="13"/>
       <c r="AY12" s="13"/>
@@ -2068,7 +2068,7 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -2082,39 +2082,39 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="22"/>
+      <c r="AQ13" s="22"/>
       <c r="AR13" s="13"/>
       <c r="AS13" s="13"/>
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
-      <c r="AV13" s="15"/>
+      <c r="AV13" s="14"/>
       <c r="AW13" s="13"/>
       <c r="AX13" s="13"/>
       <c r="AY13" s="13"/>
@@ -2122,7 +2122,7 @@
       <c r="BA13" s="13"/>
       <c r="BB13" s="13"/>
       <c r="BC13" s="13"/>
-      <c r="BD13" s="15"/>
+      <c r="BD13" s="14"/>
       <c r="BE13" s="13"/>
       <c r="BF13" s="13"/>
       <c r="BG13" s="13"/>
@@ -2147,7 +2147,7 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -2161,39 +2161,39 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
       <c r="AR14" s="13"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
-      <c r="AV14" s="15"/>
+      <c r="AV14" s="14"/>
       <c r="AW14" s="13"/>
       <c r="AX14" s="13"/>
       <c r="AY14" s="13"/>
@@ -2201,7 +2201,7 @@
       <c r="BA14" s="13"/>
       <c r="BB14" s="13"/>
       <c r="BC14" s="13"/>
-      <c r="BD14" s="15"/>
+      <c r="BD14" s="14"/>
       <c r="BE14" s="13"/>
       <c r="BF14" s="13"/>
       <c r="BG14" s="13"/>
@@ -2226,7 +2226,7 @@
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2240,39 +2240,39 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="16"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
       <c r="AR15" s="13"/>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
       <c r="AU15" s="13"/>
-      <c r="AV15" s="15"/>
+      <c r="AV15" s="14"/>
       <c r="AW15" s="13"/>
       <c r="AX15" s="13"/>
       <c r="AY15" s="13"/>
@@ -2280,7 +2280,7 @@
       <c r="BA15" s="13"/>
       <c r="BB15" s="13"/>
       <c r="BC15" s="13"/>
-      <c r="BD15" s="15"/>
+      <c r="BD15" s="14"/>
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
       <c r="BG15" s="13"/>
@@ -2305,7 +2305,7 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2319,39 +2319,39 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
       <c r="AR16" s="13"/>
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
       <c r="AU16" s="13"/>
-      <c r="AV16" s="15"/>
+      <c r="AV16" s="14"/>
       <c r="AW16" s="13"/>
       <c r="AX16" s="13"/>
       <c r="AY16" s="13"/>
@@ -2359,7 +2359,7 @@
       <c r="BA16" s="13"/>
       <c r="BB16" s="13"/>
       <c r="BC16" s="13"/>
-      <c r="BD16" s="15"/>
+      <c r="BD16" s="14"/>
       <c r="BE16" s="13"/>
       <c r="BF16" s="13"/>
       <c r="BG16" s="13"/>
@@ -2384,7 +2384,7 @@
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -2398,39 +2398,39 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
       <c r="AR17" s="13"/>
       <c r="AS17" s="13"/>
       <c r="AT17" s="13"/>
       <c r="AU17" s="13"/>
-      <c r="AV17" s="15"/>
+      <c r="AV17" s="14"/>
       <c r="AW17" s="13"/>
       <c r="AX17" s="13"/>
       <c r="AY17" s="13"/>
@@ -2438,7 +2438,7 @@
       <c r="BA17" s="13"/>
       <c r="BB17" s="13"/>
       <c r="BC17" s="13"/>
-      <c r="BD17" s="15"/>
+      <c r="BD17" s="14"/>
       <c r="BE17" s="13"/>
       <c r="BF17" s="13"/>
       <c r="BG17" s="13"/>
@@ -2463,7 +2463,7 @@
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -2477,39 +2477,39 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
       <c r="AU18" s="13"/>
-      <c r="AV18" s="15"/>
+      <c r="AV18" s="14"/>
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="13"/>
@@ -2517,7 +2517,7 @@
       <c r="BA18" s="13"/>
       <c r="BB18" s="13"/>
       <c r="BC18" s="13"/>
-      <c r="BD18" s="15"/>
+      <c r="BD18" s="14"/>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
       <c r="BG18" s="13"/>
@@ -2554,34 +2554,34 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
       <c r="AR19" s="13"/>
       <c r="AS19" s="13"/>
       <c r="AT19" s="13"/>
@@ -2631,34 +2631,34 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
       <c r="AR20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
@@ -2708,34 +2708,34 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
       <c r="AR21" s="13"/>
       <c r="AS21" s="13"/>
       <c r="AT21" s="13"/>
@@ -2785,34 +2785,34 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="14"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="14"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
       <c r="AR22" s="13"/>
       <c r="AS22" s="13"/>
       <c r="AT22" s="13"/>
@@ -2862,34 +2862,34 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
       <c r="AR23" s="13"/>
       <c r="AS23" s="13"/>
       <c r="AT23" s="13"/>
@@ -2939,34 +2939,34 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="14"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
       <c r="AR24" s="13"/>
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
@@ -3016,34 +3016,34 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
       <c r="AR25" s="13"/>
       <c r="AS25" s="13"/>
       <c r="AT25" s="13"/>
@@ -3093,34 +3093,34 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="14"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
       <c r="AR26" s="13"/>
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
@@ -3170,34 +3170,34 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
       <c r="AR27" s="13"/>
       <c r="AS27" s="13"/>
       <c r="AT27" s="13"/>
@@ -3233,51 +3233,275 @@
     </row>
   </sheetData>
   <mergeCells count="338">
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AR6:AU6"/>
-    <mergeCell ref="AV6:AY6"/>
-    <mergeCell ref="BD2:BG2"/>
-    <mergeCell ref="BD3:BG3"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="BD6:BG6"/>
-    <mergeCell ref="BD7:BG7"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="BD9:BG9"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="BP20:BW20"/>
-    <mergeCell ref="BP21:BW21"/>
-    <mergeCell ref="BP22:BW22"/>
-    <mergeCell ref="BP23:BW23"/>
-    <mergeCell ref="BP24:BW24"/>
-    <mergeCell ref="BP25:BW25"/>
-    <mergeCell ref="BP26:BW26"/>
-    <mergeCell ref="BP27:BW27"/>
-    <mergeCell ref="BP11:BW11"/>
-    <mergeCell ref="BP12:BW12"/>
-    <mergeCell ref="BP13:BW13"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="BP15:BW15"/>
-    <mergeCell ref="BP16:BW16"/>
-    <mergeCell ref="BP17:BW17"/>
-    <mergeCell ref="BP18:BW18"/>
-    <mergeCell ref="BP19:BW19"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BP3:BW3"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BP5:BW5"/>
-    <mergeCell ref="BP6:BW6"/>
-    <mergeCell ref="BP7:BW7"/>
-    <mergeCell ref="BP8:BW8"/>
-    <mergeCell ref="BP9:BW9"/>
-    <mergeCell ref="BP10:BW10"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="BL27:BO27"/>
+    <mergeCell ref="BH26:BK26"/>
+    <mergeCell ref="BL26:BO26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="AA27:AQ27"/>
+    <mergeCell ref="AZ27:BC27"/>
+    <mergeCell ref="BH27:BK27"/>
+    <mergeCell ref="P26:U26"/>
+    <mergeCell ref="P27:U27"/>
+    <mergeCell ref="BD27:BG27"/>
+    <mergeCell ref="AR27:AU27"/>
+    <mergeCell ref="AV27:AY27"/>
+    <mergeCell ref="BH25:BK25"/>
+    <mergeCell ref="BL25:BO25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="AA26:AQ26"/>
+    <mergeCell ref="AZ26:BC26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AA25:AQ25"/>
+    <mergeCell ref="AZ25:BC25"/>
+    <mergeCell ref="P25:U25"/>
+    <mergeCell ref="BD25:BG25"/>
+    <mergeCell ref="BD26:BG26"/>
+    <mergeCell ref="AR25:AU25"/>
+    <mergeCell ref="AV25:AY25"/>
+    <mergeCell ref="AR26:AU26"/>
+    <mergeCell ref="AV26:AY26"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="AA24:AQ24"/>
+    <mergeCell ref="AZ24:BC24"/>
+    <mergeCell ref="BH24:BK24"/>
+    <mergeCell ref="BL24:BO24"/>
+    <mergeCell ref="P24:U24"/>
+    <mergeCell ref="BD24:BG24"/>
+    <mergeCell ref="AR24:AU24"/>
+    <mergeCell ref="AV24:AY24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="V23:Z23"/>
+    <mergeCell ref="AA23:AQ23"/>
+    <mergeCell ref="AZ23:BC23"/>
+    <mergeCell ref="BH23:BK23"/>
+    <mergeCell ref="BL23:BO23"/>
+    <mergeCell ref="P23:U23"/>
+    <mergeCell ref="BD23:BG23"/>
+    <mergeCell ref="AR23:AU23"/>
+    <mergeCell ref="AV23:AY23"/>
+    <mergeCell ref="BH21:BK21"/>
+    <mergeCell ref="BL21:BO21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="AA22:AQ22"/>
+    <mergeCell ref="AZ22:BC22"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="V21:Z21"/>
+    <mergeCell ref="AA21:AQ21"/>
+    <mergeCell ref="AZ21:BC21"/>
+    <mergeCell ref="BH22:BK22"/>
+    <mergeCell ref="BL22:BO22"/>
+    <mergeCell ref="P21:U21"/>
+    <mergeCell ref="P22:U22"/>
+    <mergeCell ref="BD21:BG21"/>
+    <mergeCell ref="BD22:BG22"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AA20:AQ20"/>
+    <mergeCell ref="AZ20:BC20"/>
+    <mergeCell ref="BH20:BK20"/>
+    <mergeCell ref="BL20:BO20"/>
+    <mergeCell ref="P20:U20"/>
+    <mergeCell ref="BD20:BG20"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AV20:AY20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="AA19:AQ19"/>
+    <mergeCell ref="AZ19:BC19"/>
+    <mergeCell ref="BH19:BK19"/>
+    <mergeCell ref="BL19:BO19"/>
+    <mergeCell ref="P19:U19"/>
+    <mergeCell ref="BD19:BG19"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="AV19:AY19"/>
+    <mergeCell ref="BH17:BK17"/>
+    <mergeCell ref="BL17:BO17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="AA18:AQ18"/>
+    <mergeCell ref="AZ18:BC18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="AA17:AQ17"/>
+    <mergeCell ref="AZ17:BC17"/>
+    <mergeCell ref="BH18:BK18"/>
+    <mergeCell ref="BL18:BO18"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="BD17:BG17"/>
+    <mergeCell ref="BD18:BG18"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV18:AY18"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="V16:Z16"/>
+    <mergeCell ref="AA16:AQ16"/>
+    <mergeCell ref="AZ16:BC16"/>
+    <mergeCell ref="BH16:BK16"/>
+    <mergeCell ref="BL16:BO16"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="BD16:BG16"/>
+    <mergeCell ref="AR16:AU16"/>
+    <mergeCell ref="AV16:AY16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="V15:Z15"/>
+    <mergeCell ref="AA15:AQ15"/>
+    <mergeCell ref="AZ15:BC15"/>
+    <mergeCell ref="BH15:BK15"/>
+    <mergeCell ref="BL15:BO15"/>
+    <mergeCell ref="P15:U15"/>
+    <mergeCell ref="BD15:BG15"/>
+    <mergeCell ref="AR15:AU15"/>
+    <mergeCell ref="AV15:AY15"/>
+    <mergeCell ref="BH13:BK13"/>
+    <mergeCell ref="BL13:BO13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="AA14:AQ14"/>
+    <mergeCell ref="AZ14:BC14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="AA13:AQ13"/>
+    <mergeCell ref="AZ13:BC13"/>
+    <mergeCell ref="BH14:BK14"/>
+    <mergeCell ref="BL14:BO14"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="BD13:BG13"/>
+    <mergeCell ref="BD14:BG14"/>
+    <mergeCell ref="AR13:AU13"/>
+    <mergeCell ref="AV13:AY13"/>
+    <mergeCell ref="AR14:AU14"/>
+    <mergeCell ref="AV14:AY14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="AA12:AQ12"/>
+    <mergeCell ref="AZ12:BC12"/>
+    <mergeCell ref="BH12:BK12"/>
+    <mergeCell ref="BL12:BO12"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="BD12:BG12"/>
+    <mergeCell ref="AR12:AU12"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="AA11:AQ11"/>
+    <mergeCell ref="AZ11:BC11"/>
+    <mergeCell ref="BH11:BK11"/>
+    <mergeCell ref="BL11:BO11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="BD11:BG11"/>
+    <mergeCell ref="AR11:AU11"/>
+    <mergeCell ref="AV11:AY11"/>
+    <mergeCell ref="BH9:BK9"/>
+    <mergeCell ref="BL9:BO9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="AA10:AQ10"/>
+    <mergeCell ref="AZ10:BC10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA9:AQ9"/>
+    <mergeCell ref="AZ9:BC9"/>
+    <mergeCell ref="BH10:BK10"/>
+    <mergeCell ref="BL10:BO10"/>
+    <mergeCell ref="AR9:AU9"/>
+    <mergeCell ref="AV9:AY9"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="AA8:AQ8"/>
+    <mergeCell ref="AZ8:BC8"/>
+    <mergeCell ref="BH8:BK8"/>
+    <mergeCell ref="BL8:BO8"/>
+    <mergeCell ref="AR8:AU8"/>
+    <mergeCell ref="AV8:AY8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="AA7:AQ7"/>
+    <mergeCell ref="AZ7:BC7"/>
+    <mergeCell ref="BH7:BK7"/>
+    <mergeCell ref="BL7:BO7"/>
+    <mergeCell ref="AR7:AU7"/>
+    <mergeCell ref="AV7:AY7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="AA5:AQ5"/>
+    <mergeCell ref="AZ5:BC5"/>
+    <mergeCell ref="BH5:BK5"/>
+    <mergeCell ref="BL5:BO5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA6:AQ6"/>
+    <mergeCell ref="AZ6:BC6"/>
+    <mergeCell ref="BH6:BK6"/>
+    <mergeCell ref="BL6:BO6"/>
     <mergeCell ref="BH2:BK2"/>
     <mergeCell ref="BL2:BO2"/>
     <mergeCell ref="BH3:BK3"/>
@@ -3302,275 +3526,51 @@
     <mergeCell ref="AZ4:BC4"/>
     <mergeCell ref="BH4:BK4"/>
     <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="AA5:AQ5"/>
-    <mergeCell ref="AZ5:BC5"/>
-    <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="BL5:BO5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AA6:AQ6"/>
-    <mergeCell ref="AZ6:BC6"/>
-    <mergeCell ref="BH6:BK6"/>
-    <mergeCell ref="BL6:BO6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="AA7:AQ7"/>
-    <mergeCell ref="AZ7:BC7"/>
-    <mergeCell ref="BH7:BK7"/>
-    <mergeCell ref="BL7:BO7"/>
-    <mergeCell ref="AR7:AU7"/>
-    <mergeCell ref="AV7:AY7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="AA8:AQ8"/>
-    <mergeCell ref="AZ8:BC8"/>
-    <mergeCell ref="BH8:BK8"/>
-    <mergeCell ref="BL8:BO8"/>
-    <mergeCell ref="AR8:AU8"/>
-    <mergeCell ref="AV8:AY8"/>
-    <mergeCell ref="BH9:BK9"/>
-    <mergeCell ref="BL9:BO9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="AA10:AQ10"/>
-    <mergeCell ref="AZ10:BC10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA9:AQ9"/>
-    <mergeCell ref="AZ9:BC9"/>
-    <mergeCell ref="BH10:BK10"/>
-    <mergeCell ref="BL10:BO10"/>
-    <mergeCell ref="AR9:AU9"/>
-    <mergeCell ref="AV9:AY9"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="AA11:AQ11"/>
-    <mergeCell ref="AZ11:BC11"/>
-    <mergeCell ref="BH11:BK11"/>
-    <mergeCell ref="BL11:BO11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="BD11:BG11"/>
-    <mergeCell ref="AR11:AU11"/>
-    <mergeCell ref="AV11:AY11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="V12:Z12"/>
-    <mergeCell ref="AA12:AQ12"/>
-    <mergeCell ref="AZ12:BC12"/>
-    <mergeCell ref="BH12:BK12"/>
-    <mergeCell ref="BL12:BO12"/>
-    <mergeCell ref="P12:U12"/>
-    <mergeCell ref="BD12:BG12"/>
-    <mergeCell ref="AR12:AU12"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="BH13:BK13"/>
-    <mergeCell ref="BL13:BO13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="AA14:AQ14"/>
-    <mergeCell ref="AZ14:BC14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="AA13:AQ13"/>
-    <mergeCell ref="AZ13:BC13"/>
-    <mergeCell ref="BH14:BK14"/>
-    <mergeCell ref="BL14:BO14"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="BD13:BG13"/>
-    <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="AR13:AU13"/>
-    <mergeCell ref="AV13:AY13"/>
-    <mergeCell ref="AR14:AU14"/>
-    <mergeCell ref="AV14:AY14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="V15:Z15"/>
-    <mergeCell ref="AA15:AQ15"/>
-    <mergeCell ref="AZ15:BC15"/>
-    <mergeCell ref="BH15:BK15"/>
-    <mergeCell ref="BL15:BO15"/>
-    <mergeCell ref="P15:U15"/>
-    <mergeCell ref="BD15:BG15"/>
-    <mergeCell ref="AR15:AU15"/>
-    <mergeCell ref="AV15:AY15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="AA16:AQ16"/>
-    <mergeCell ref="AZ16:BC16"/>
-    <mergeCell ref="BH16:BK16"/>
-    <mergeCell ref="BL16:BO16"/>
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="BD16:BG16"/>
-    <mergeCell ref="AR16:AU16"/>
-    <mergeCell ref="AV16:AY16"/>
-    <mergeCell ref="BH17:BK17"/>
-    <mergeCell ref="BL17:BO17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="AA18:AQ18"/>
-    <mergeCell ref="AZ18:BC18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="AA17:AQ17"/>
-    <mergeCell ref="AZ17:BC17"/>
-    <mergeCell ref="BH18:BK18"/>
-    <mergeCell ref="BL18:BO18"/>
-    <mergeCell ref="P17:U17"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="BD17:BG17"/>
-    <mergeCell ref="BD18:BG18"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV18:AY18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="AA19:AQ19"/>
-    <mergeCell ref="AZ19:BC19"/>
-    <mergeCell ref="BH19:BK19"/>
-    <mergeCell ref="BL19:BO19"/>
-    <mergeCell ref="P19:U19"/>
-    <mergeCell ref="BD19:BG19"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="AA20:AQ20"/>
-    <mergeCell ref="AZ20:BC20"/>
-    <mergeCell ref="BH20:BK20"/>
-    <mergeCell ref="BL20:BO20"/>
-    <mergeCell ref="P20:U20"/>
-    <mergeCell ref="BD20:BG20"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AV20:AY20"/>
-    <mergeCell ref="BH21:BK21"/>
-    <mergeCell ref="BL21:BO21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="AA22:AQ22"/>
-    <mergeCell ref="AZ22:BC22"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="V21:Z21"/>
-    <mergeCell ref="AA21:AQ21"/>
-    <mergeCell ref="AZ21:BC21"/>
-    <mergeCell ref="BH22:BK22"/>
-    <mergeCell ref="BL22:BO22"/>
-    <mergeCell ref="P21:U21"/>
-    <mergeCell ref="P22:U22"/>
-    <mergeCell ref="BD21:BG21"/>
-    <mergeCell ref="BD22:BG22"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="V23:Z23"/>
-    <mergeCell ref="AA23:AQ23"/>
-    <mergeCell ref="AZ23:BC23"/>
-    <mergeCell ref="BH23:BK23"/>
-    <mergeCell ref="BL23:BO23"/>
-    <mergeCell ref="P23:U23"/>
-    <mergeCell ref="BD23:BG23"/>
-    <mergeCell ref="AR23:AU23"/>
-    <mergeCell ref="AV23:AY23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="AA24:AQ24"/>
-    <mergeCell ref="AZ24:BC24"/>
-    <mergeCell ref="BH24:BK24"/>
-    <mergeCell ref="BL24:BO24"/>
-    <mergeCell ref="P24:U24"/>
-    <mergeCell ref="BD24:BG24"/>
-    <mergeCell ref="AR24:AU24"/>
-    <mergeCell ref="AV24:AY24"/>
-    <mergeCell ref="BH25:BK25"/>
-    <mergeCell ref="BL25:BO25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="AA26:AQ26"/>
-    <mergeCell ref="AZ26:BC26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="AA25:AQ25"/>
-    <mergeCell ref="AZ25:BC25"/>
-    <mergeCell ref="P25:U25"/>
-    <mergeCell ref="BD25:BG25"/>
-    <mergeCell ref="BD26:BG26"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AV25:AY25"/>
-    <mergeCell ref="AR26:AU26"/>
-    <mergeCell ref="AV26:AY26"/>
-    <mergeCell ref="BL27:BO27"/>
-    <mergeCell ref="BH26:BK26"/>
-    <mergeCell ref="BL26:BO26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="AA27:AQ27"/>
-    <mergeCell ref="AZ27:BC27"/>
-    <mergeCell ref="BH27:BK27"/>
-    <mergeCell ref="P26:U26"/>
-    <mergeCell ref="P27:U27"/>
-    <mergeCell ref="BD27:BG27"/>
-    <mergeCell ref="AR27:AU27"/>
-    <mergeCell ref="AV27:AY27"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BP3:BW3"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BP5:BW5"/>
+    <mergeCell ref="BP6:BW6"/>
+    <mergeCell ref="BP7:BW7"/>
+    <mergeCell ref="BP8:BW8"/>
+    <mergeCell ref="BP9:BW9"/>
+    <mergeCell ref="BP10:BW10"/>
+    <mergeCell ref="BP20:BW20"/>
+    <mergeCell ref="BP21:BW21"/>
+    <mergeCell ref="BP22:BW22"/>
+    <mergeCell ref="BP23:BW23"/>
+    <mergeCell ref="BP24:BW24"/>
+    <mergeCell ref="BP25:BW25"/>
+    <mergeCell ref="BP26:BW26"/>
+    <mergeCell ref="BP27:BW27"/>
+    <mergeCell ref="BP11:BW11"/>
+    <mergeCell ref="BP12:BW12"/>
+    <mergeCell ref="BP13:BW13"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="BP15:BW15"/>
+    <mergeCell ref="BP16:BW16"/>
+    <mergeCell ref="BP17:BW17"/>
+    <mergeCell ref="BP18:BW18"/>
+    <mergeCell ref="BP19:BW19"/>
+    <mergeCell ref="BD2:BG2"/>
+    <mergeCell ref="BD3:BG3"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BD5:BG5"/>
+    <mergeCell ref="BD6:BG6"/>
+    <mergeCell ref="BD7:BG7"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="BD9:BG9"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AR6:AU6"/>
+    <mergeCell ref="AV6:AY6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
